--- a/src/test/resources/OpenWeatherMapTestCases.xlsx
+++ b/src/test/resources/OpenWeatherMapTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ByCityName" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="36">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -95,6 +95,36 @@
   </si>
   <si>
     <t>INVALID_DATA</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Valid Geo Coords</t>
+  </si>
+  <si>
+    <t>Invalid Geo Coords</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>Mountain View</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>ZZ</t>
   </si>
 </sst>
 </file>
@@ -580,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,24 +736,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>-16.920000000000002</v>
+      </c>
+      <c r="E2">
+        <v>145.77000000000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>2172797</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>3002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>360</v>
+      </c>
+      <c r="E3">
+        <v>-1000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>404</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>94040</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>5375480</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>3002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>404</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/OpenWeatherMapTestCases.xlsx
+++ b/src/test/resources/OpenWeatherMapTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ByCityName" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="56">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Expected Message</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -125,6 +119,72 @@
   </si>
   <si>
     <t>ZZ</t>
+  </si>
+  <si>
+    <t>ACCURATE</t>
+  </si>
+  <si>
+    <t>GERMAN</t>
+  </si>
+  <si>
+    <t>Estanzuela</t>
+  </si>
+  <si>
+    <t>Existing city. No country code. No Other features</t>
+  </si>
+  <si>
+    <t>Existing city. Valid country code. No Other features</t>
+  </si>
+  <si>
+    <t>Existing city. Valid country code. Language english</t>
+  </si>
+  <si>
+    <t>Invalid city. Invalid country code. Search Acurate. Language german</t>
+  </si>
+  <si>
+    <t>METRIC</t>
+  </si>
+  <si>
+    <t>Existing city. Valid country code. Unit Fahrenheit. Language english</t>
+  </si>
+  <si>
+    <t>Existing city. Valid country code. Search like, Unit Fahrenheit. Language english</t>
+  </si>
+  <si>
+    <t>LIKE</t>
+  </si>
+  <si>
+    <t>Valid Id. No other Features.</t>
+  </si>
+  <si>
+    <t>Invalid Id</t>
+  </si>
+  <si>
+    <t>Valid Id. Unit Celsius</t>
+  </si>
+  <si>
+    <t>Existing city. Valid country code. Unit Celsius. Language english</t>
+  </si>
+  <si>
+    <t>IMPERIAL</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>SPANISH</t>
+  </si>
+  <si>
+    <t>Valid Id. Unit Celsius. Language Spanish</t>
+  </si>
+  <si>
+    <t>Mex</t>
+  </si>
+  <si>
+    <t>City Part. Search like, Unit Celsius. Language english</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
   </si>
 </sst>
 </file>
@@ -472,14 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -493,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -520,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -531,25 +590,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -558,37 +617,37 @@
         <v>2643743</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A9" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>200</v>
@@ -597,7 +656,238 @@
         <v>2643743</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>2643743</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <v>200</v>
+      </c>
+      <c r="L5">
+        <v>8182072</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>2643743</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <v>2643743</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <v>2643743</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>3530597</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -608,10 +898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L3"/>
+      <selection activeCell="K5" sqref="K5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -653,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -664,25 +954,25 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>2172797</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>200</v>
@@ -691,7 +981,7 @@
         <v>2172797</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -700,33 +990,105 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>2172797000</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
       </c>
       <c r="I3">
         <v>404</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>8182072</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+      <c r="K4">
+        <v>8182072</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>3996063</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+      <c r="K5">
+        <v>3996063</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -739,7 +1101,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,13 +1114,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -779,10 +1141,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -790,10 +1152,10 @@
         <v>3001</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>-16.920000000000002</v>
@@ -802,16 +1164,16 @@
         <v>145.77000000000001</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -820,7 +1182,7 @@
         <v>2172797</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -829,10 +1191,10 @@
         <v>3002</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>360</v>
@@ -841,22 +1203,22 @@
         <v>-1000</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
       </c>
       <c r="J3">
         <v>404</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -870,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,13 +1246,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -911,39 +1273,39 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3001</v>
+        <v>4001</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>94040</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -952,43 +1314,43 @@
         <v>5375480</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>3002</v>
+        <v>4002</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
       </c>
       <c r="J3">
         <v>404</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1"/>
     </row>
